--- a/Code_python/Data/STOXX50E.xlsx
+++ b/Code_python/Data/STOXX50E.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3437" uniqueCount="3437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3438" uniqueCount="3438">
   <si>
     <t>date</t>
   </si>
@@ -10325,6 +10325,9 @@
   </si>
   <si>
     <t>2020-11-19</t>
+  </si>
+  <si>
+    <t>2020-11-20</t>
   </si>
 </sst>
 </file>
@@ -10682,7 +10685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3431"/>
+  <dimension ref="A1:G3432"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -89601,6 +89604,29 @@
         <v>38187600</v>
       </c>
     </row>
+    <row r="3432" spans="1:7">
+      <c r="A3432" t="s">
+        <v>3437</v>
+      </c>
+      <c r="B3432">
+        <v>3447.9599609375</v>
+      </c>
+      <c r="C3432">
+        <v>3484.2900390625</v>
+      </c>
+      <c r="D3432">
+        <v>3442.81005859375</v>
+      </c>
+      <c r="E3432">
+        <v>3467.60009765625</v>
+      </c>
+      <c r="F3432">
+        <v>3467.60009765625</v>
+      </c>
+      <c r="G3432">
+        <v>37867200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
